--- a/output/1Y_P42_1VAL-D.xlsx
+++ b/output/1Y_P42_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>650.851</v>
       </c>
-      <c r="G2" s="1">
-        <v>650.851</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.127200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3645</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E3" s="1">
+        <v>650.851</v>
+      </c>
       <c r="F3" s="1">
         <v>606.2333</v>
       </c>
-      <c r="G3" s="1">
-        <v>1257.0843</v>
-      </c>
       <c r="H3" s="1">
-        <v>20628.3759</v>
+        <v>10680.2695</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.9098</v>
+        <v>10680.2695</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.3645</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20628.3759</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0341</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E4" s="1">
+        <v>1257.0843</v>
+      </c>
       <c r="F4" s="1">
         <v>589.2717</v>
       </c>
-      <c r="G4" s="1">
-        <v>1846.356</v>
-      </c>
       <c r="H4" s="1">
-        <v>31170.3666</v>
+        <v>21222.2225</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.2482</v>
+        <v>21222.2225</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9098</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31170.3666</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0177</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E5" s="1">
+        <v>1846.356</v>
+      </c>
       <c r="F5" s="1">
         <v>555.8489</v>
       </c>
-      <c r="G5" s="1">
-        <v>2402.2049</v>
-      </c>
       <c r="H5" s="1">
-        <v>42992.7419</v>
+        <v>33044.6026</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6514</v>
+        <v>33044.6026</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.2482</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42992.7419</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0443</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E6" s="1">
+        <v>2402.2049</v>
+      </c>
       <c r="F6" s="1">
         <v>548.3388</v>
       </c>
-      <c r="G6" s="1">
-        <v>2950.5437</v>
-      </c>
       <c r="H6" s="1">
-        <v>53529.6494</v>
+        <v>43581.5223</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.946</v>
+        <v>43581.5223</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.6514</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53529.6494</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0101</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E7" s="1">
+        <v>2950.5437</v>
+      </c>
       <c r="F7" s="1">
         <v>522.4797</v>
       </c>
-      <c r="G7" s="1">
-        <v>3473.0234</v>
-      </c>
       <c r="H7" s="1">
-        <v>66127.0604</v>
+        <v>56178.9426</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>-0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.276</v>
+        <v>56178.9426</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.946</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>66127.0604</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0409</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>20.979</v>
       </c>
+      <c r="E8" s="1">
+        <v>3473.0234</v>
+      </c>
       <c r="F8" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G8" s="1">
-        <v>3949.6906</v>
-      </c>
       <c r="H8" s="1">
-        <v>82431.2268</v>
+        <v>72483.04059999999</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.7229</v>
+        <v>72483.04059999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.276</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>82431.2268</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0828</v>
+        <v>0.0953</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E9" s="1">
+        <v>3949.6906</v>
+      </c>
       <c r="F9" s="1">
         <v>446.606</v>
       </c>
-      <c r="G9" s="1">
-        <v>4396.2966</v>
-      </c>
       <c r="H9" s="1">
-        <v>97927.9458</v>
+        <v>87979.7521</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>18.1971</v>
+        <v>87979.7521</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.7229</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>97927.9458</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0595</v>
+        <v>0.06660000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E10" s="1">
+        <v>4396.2966</v>
+      </c>
       <c r="F10" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G10" s="1">
-        <v>4826.3431</v>
-      </c>
       <c r="H10" s="1">
-        <v>111646.3462</v>
+        <v>101698.2098</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>18.6477</v>
+        <v>101698.2098</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.1971</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>111646.3462</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0345</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>22.965</v>
       </c>
+      <c r="E11" s="1">
+        <v>4826.3431</v>
+      </c>
       <c r="F11" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G11" s="1">
-        <v>5261.7883</v>
-      </c>
       <c r="H11" s="1">
-        <v>120210.2895</v>
+        <v>110262.151</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>19.0049</v>
+        <v>110262.151</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.6477</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>120210.2895</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0118</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E12" s="1">
+        <v>5261.7883</v>
+      </c>
       <c r="F12" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G12" s="1">
-        <v>5762.6197</v>
-      </c>
       <c r="H12" s="1">
-        <v>114464.6436</v>
+        <v>104516.4797</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>19.0885</v>
+        <v>104516.4797</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>19.0049</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114464.6436</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.1209</v>
+        <v>-0.1309</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E13" s="1">
+        <v>5762.6197</v>
+      </c>
       <c r="F13" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G13" s="1">
-        <v>6310.7421</v>
-      </c>
       <c r="H13" s="1">
-        <v>114536.8136</v>
+        <v>104588.666</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>19.0152</v>
+        <v>104588.666</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>19.0885</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114536.8136</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0798</v>
+        <v>-0.0867</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E14" s="1">
+        <v>6310.7421</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6310.7421</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-5762.6197</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>89917.9776</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>19.0152</v>
+        <v>89917.9776</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>17.4306</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
-        <v>11359.3358</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>101277.3134</v>
+        <v>10372.7154</v>
       </c>
       <c r="O14" s="1">
-        <v>101277.3134</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101277.3134</v>
+        <v>92480.82580000001</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1868</v>
+        <v>-0.2153</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.3645</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>650.851</v>
       </c>
       <c r="G2" s="1">
-        <v>650.851</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3645</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.4953</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>650.851</v>
       </c>
       <c r="F3" s="1">
         <v>567.9403</v>
       </c>
       <c r="G3" s="1">
-        <v>1218.7913</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10680.2695</v>
       </c>
       <c r="I3" s="1">
-        <v>19368.3462</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8914</v>
+        <v>10680.2695</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9368.3462</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.394</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9368.3462</v>
       </c>
-      <c r="O3" s="1">
-        <v>631.6538</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20631.6538</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0343</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.9701</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1218.7913</v>
       </c>
       <c r="F4" s="1">
         <v>558.2388</v>
       </c>
       <c r="G4" s="1">
-        <v>1777.0301</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20575.757</v>
       </c>
       <c r="I4" s="1">
-        <v>28841.7142</v>
+        <v>631.6538</v>
       </c>
       <c r="J4" s="1">
-        <v>16.2303</v>
+        <v>21207.4108</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18841.7142</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.4593</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9473.368</v>
       </c>
-      <c r="O4" s="1">
-        <v>1158.2858</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31158.2858</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0172</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.9905</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1777.0301</v>
       </c>
       <c r="F5" s="1">
         <v>457.9564</v>
       </c>
       <c r="G5" s="1">
-        <v>2234.9865</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31803.8633</v>
       </c>
       <c r="I5" s="1">
-        <v>37080.5783</v>
+        <v>1158.2858</v>
       </c>
       <c r="J5" s="1">
-        <v>16.591</v>
+        <v>32962.149</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27080.5783</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.2392</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8238.864100000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>2919.4217</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42919.4217</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0428</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>18.2369</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2234.9865</v>
       </c>
       <c r="F6" s="1">
         <v>521.0037</v>
       </c>
       <c r="G6" s="1">
-        <v>2755.9901</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>40547.7952</v>
       </c>
       <c r="I6" s="1">
-        <v>46582.0701</v>
+        <v>2919.4217</v>
       </c>
       <c r="J6" s="1">
-        <v>16.9021</v>
+        <v>43467.2169</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36582.0701</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.3679</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9501.4918</v>
       </c>
-      <c r="O6" s="1">
-        <v>3417.9299</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53417.9299</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0094</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>19.1395</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2755.9901</v>
       </c>
       <c r="F7" s="1">
         <v>395.2373</v>
       </c>
       <c r="G7" s="1">
-        <v>3151.2274</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52474.6036</v>
       </c>
       <c r="I7" s="1">
-        <v>54146.7136</v>
+        <v>3417.9299</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1827</v>
+        <v>55892.5335</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44146.7136</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.0185</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7564.6435</v>
       </c>
-      <c r="O7" s="1">
-        <v>5853.2864</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65853.2864</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0384</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>20.979</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3151.2274</v>
       </c>
       <c r="F8" s="1">
         <v>202.8212</v>
       </c>
       <c r="G8" s="1">
-        <v>3354.0486</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>65767.0613</v>
       </c>
       <c r="I8" s="1">
-        <v>58401.699</v>
+        <v>5853.2864</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4123</v>
+        <v>71620.3477</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>48401.699</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.3596</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-4254.9854</v>
       </c>
-      <c r="O8" s="1">
-        <v>11598.301</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81598.30100000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0757</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>22.3911</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3354.0486</v>
       </c>
       <c r="F9" s="1">
         <v>237.4056</v>
       </c>
       <c r="G9" s="1">
-        <v>3591.4541</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74711.7674</v>
       </c>
       <c r="I9" s="1">
-        <v>63717.4706</v>
+        <v>11598.301</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7414</v>
+        <v>86310.06849999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>53717.4706</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0157</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5315.7716</v>
       </c>
-      <c r="O9" s="1">
-        <v>16282.5294</v>
-      </c>
-      <c r="P9" s="1">
-        <v>96282.5294</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0511</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>23.2533</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>3591.4541</v>
       </c>
       <c r="F10" s="1">
         <v>299.1423</v>
       </c>
       <c r="G10" s="1">
-        <v>3890.5964</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83080.03109999999</v>
       </c>
       <c r="I10" s="1">
-        <v>70673.51609999999</v>
+        <v>16282.5294</v>
       </c>
       <c r="J10" s="1">
-        <v>18.1652</v>
+        <v>99362.56050000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>60673.5161</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8939</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6956.0455</v>
       </c>
-      <c r="O10" s="1">
-        <v>19326.4839</v>
-      </c>
-      <c r="P10" s="1">
-        <v>109326.4839</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0286</v>
+        <v>0.0317</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>22.965</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>3890.5964</v>
       </c>
       <c r="F11" s="1">
         <v>486.5566</v>
       </c>
       <c r="G11" s="1">
-        <v>4377.153</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>88884.17690000001</v>
       </c>
       <c r="I11" s="1">
-        <v>81847.288</v>
+        <v>19326.4839</v>
       </c>
       <c r="J11" s="1">
-        <v>18.6987</v>
+        <v>108210.6609</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>71847.288</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.4669</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11173.7719</v>
       </c>
-      <c r="O11" s="1">
-        <v>18152.712</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118152.712</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0098</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>19.9668</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>4377.153</v>
       </c>
       <c r="F12" s="1">
         <v>1160.6982</v>
       </c>
       <c r="G12" s="1">
-        <v>5537.8512</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>86944.7034</v>
       </c>
       <c r="I12" s="1">
-        <v>105022.7168</v>
+        <v>18152.712</v>
       </c>
       <c r="J12" s="1">
-        <v>18.9645</v>
+        <v>105097.4154</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>95022.71679999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>21.7088</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-23175.4288</v>
       </c>
-      <c r="O12" s="1">
-        <v>4977.2832</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114977.2832</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.1028</v>
+        <v>-0.1109</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.2441</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>5537.8512</v>
       </c>
       <c r="F13" s="1">
         <v>820.9384</v>
       </c>
       <c r="G13" s="1">
-        <v>6358.7897</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>115408.853</v>
+        <v>100509.2306</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>4977.2832</v>
       </c>
       <c r="J13" s="1">
-        <v>18.8715</v>
+        <v>105486.5138</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>19.8633</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14977.2832</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>115408.853</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0766</v>
+        <v>-0.0835</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.3227</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6358.7897</v>
       </c>
       <c r="F14" s="1">
         <v>-6358.7897</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>90602.57859999999</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.8715</v>
+        <v>90602.57859999999</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>17.2989</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
-        <v>11445.8214</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>102048.4</v>
+        <v>9968.1322</v>
       </c>
       <c r="O14" s="1">
-        <v>102048.4</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>102048.4</v>
+        <v>100570.7108</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1863</v>
+        <v>-0.2155</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.3645</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>650.851</v>
       </c>
       <c r="G2" s="1">
-        <v>650.851</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3645</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.4953</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>650.851</v>
       </c>
       <c r="F3" s="1">
         <v>570.9873</v>
       </c>
       <c r="G3" s="1">
-        <v>1221.8383</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10680.2695</v>
       </c>
       <c r="I3" s="1">
-        <v>19418.6071</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8929</v>
+        <v>10680.2695</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9418.607099999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.4712</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9418.607099999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>581.3929000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20631.3929</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0343</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.9701</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1221.8383</v>
       </c>
       <c r="F4" s="1">
         <v>564.0918</v>
       </c>
       <c r="G4" s="1">
-        <v>1785.9301</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20627.1964</v>
       </c>
       <c r="I4" s="1">
-        <v>28991.3007</v>
+        <v>581.3929000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>16.2332</v>
+        <v>21208.5894</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18991.3007</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.5432</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9572.6937</v>
       </c>
-      <c r="O4" s="1">
-        <v>1008.6993</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31158.9493</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0172</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.9905</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1785.9301</v>
       </c>
       <c r="F5" s="1">
         <v>465.8748</v>
       </c>
       <c r="G5" s="1">
-        <v>2251.8048</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31963.1476</v>
       </c>
       <c r="I5" s="1">
-        <v>37372.6205</v>
+        <v>1008.6993</v>
       </c>
       <c r="J5" s="1">
-        <v>16.5967</v>
+        <v>32971.8469</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27372.6205</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.3268</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8381.319799999999</v>
       </c>
-      <c r="O5" s="1">
-        <v>2627.3795</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42928.3808</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.043</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>18.2369</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2251.8048</v>
       </c>
       <c r="F6" s="1">
         <v>531.8834000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2783.6882</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40852.9186</v>
       </c>
       <c r="I6" s="1">
-        <v>47072.5243</v>
+        <v>2627.3795</v>
       </c>
       <c r="J6" s="1">
-        <v>16.9101</v>
+        <v>43480.2981</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37072.5243</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.4635</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9699.9038</v>
       </c>
-      <c r="O6" s="1">
-        <v>2927.4757</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53429.982</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0095</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>19.1395</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2783.6882</v>
       </c>
       <c r="F7" s="1">
         <v>407.1931</v>
       </c>
       <c r="G7" s="1">
-        <v>3190.8813</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53001.9799</v>
       </c>
       <c r="I7" s="1">
-        <v>54865.9975</v>
+        <v>2927.4757</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1946</v>
+        <v>55929.4556</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44865.9975</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.1175</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7793.4732</v>
       </c>
-      <c r="O7" s="1">
-        <v>5134.0025</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65889.02129999999</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0388</v>
+        <v>0.0458</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>20.979</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3190.8813</v>
       </c>
       <c r="F8" s="1">
         <v>213.8993</v>
       </c>
       <c r="G8" s="1">
-        <v>3404.7807</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>66594.6507</v>
       </c>
       <c r="I8" s="1">
-        <v>59353.3915</v>
+        <v>5134.0025</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4324</v>
+        <v>71728.6532</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>49353.3915</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.467</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-4487.394</v>
       </c>
-      <c r="O8" s="1">
-        <v>10646.6085</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81705.40240000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0766</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>22.3911</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3404.7807</v>
       </c>
       <c r="F9" s="1">
         <v>250.1564</v>
       </c>
       <c r="G9" s="1">
-        <v>3654.937</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>75841.82980000001</v>
       </c>
       <c r="I9" s="1">
-        <v>64954.6677</v>
+        <v>10646.6085</v>
       </c>
       <c r="J9" s="1">
-        <v>17.7718</v>
+        <v>86488.43829999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>54954.6677</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.1404</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5601.2762</v>
       </c>
-      <c r="O9" s="1">
-        <v>15045.3323</v>
-      </c>
-      <c r="P9" s="1">
-        <v>96459.4201</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0518</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>23.2533</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>3654.937</v>
       </c>
       <c r="F10" s="1">
         <v>314.386</v>
       </c>
       <c r="G10" s="1">
-        <v>3969.323</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>84548.5618</v>
       </c>
       <c r="I10" s="1">
-        <v>72265.17909999999</v>
+        <v>15045.3323</v>
       </c>
       <c r="J10" s="1">
-        <v>18.2059</v>
+        <v>99593.8941</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>62265.1791</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.0359</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7310.5114</v>
       </c>
-      <c r="O10" s="1">
-        <v>17734.8209</v>
-      </c>
-      <c r="P10" s="1">
-        <v>109555.9792</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0291</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>22.965</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>3969.323</v>
       </c>
       <c r="F11" s="1">
         <v>507.6407</v>
       </c>
       <c r="G11" s="1">
-        <v>4476.9637</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>90682.7565</v>
       </c>
       <c r="I11" s="1">
-        <v>83923.1467</v>
+        <v>17734.8209</v>
       </c>
       <c r="J11" s="1">
-        <v>18.7456</v>
+        <v>108417.5773</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>73923.1467</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.6236</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11657.9676</v>
       </c>
-      <c r="O11" s="1">
-        <v>16076.8533</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118357.1173</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.01</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>19.9668</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>4476.9637</v>
       </c>
       <c r="F12" s="1">
         <v>1201.4314</v>
       </c>
       <c r="G12" s="1">
-        <v>5678.3951</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>88927.2723</v>
       </c>
       <c r="I12" s="1">
-        <v>107911.888</v>
+        <v>16076.8533</v>
       </c>
       <c r="J12" s="1">
-        <v>19.0039</v>
+        <v>105004.1255</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>97911.88800000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>21.8702</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-23988.7413</v>
       </c>
-      <c r="O12" s="1">
-        <v>2088.112</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114879.7774</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.105</v>
+        <v>-0.1133</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.2441</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>5678.3951</v>
       </c>
       <c r="F13" s="1">
         <v>662.5765</v>
       </c>
       <c r="G13" s="1">
-        <v>6340.9716</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>115085.4641</v>
+        <v>103060.0319</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>2088.112</v>
       </c>
       <c r="J13" s="1">
-        <v>18.9245</v>
+        <v>105148.1438</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>19.3717</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-12088.112</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>115085.4641</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0784</v>
+        <v>-0.0857</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>14.3227</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6340.9716</v>
       </c>
       <c r="F14" s="1">
         <v>-6340.9716</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>90348.6998</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.9245</v>
+        <v>90348.6998</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>17.3475</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
-        <v>11413.7489</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>101762.4487</v>
+        <v>10221.1112</v>
       </c>
       <c r="O14" s="1">
-        <v>101762.4487</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101762.4487</v>
+        <v>100569.811</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1865</v>
+        <v>-0.2154</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.3645</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>650.851</v>
       </c>
       <c r="G2" s="1">
-        <v>650.851</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3645</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.4953</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>650.851</v>
       </c>
       <c r="F3" s="1">
         <v>574.0343</v>
       </c>
       <c r="G3" s="1">
-        <v>1224.8853</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10680.2695</v>
       </c>
       <c r="I3" s="1">
-        <v>19468.8679</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8944</v>
+        <v>10680.2695</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9468.867899999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.5484</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9468.867899999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>531.1321</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20631.1321</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0342</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.9701</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1224.8853</v>
       </c>
       <c r="F4" s="1">
         <v>569.9743999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1794.8596</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20678.6358</v>
       </c>
       <c r="I4" s="1">
-        <v>29141.3898</v>
+        <v>531.1321</v>
       </c>
       <c r="J4" s="1">
-        <v>16.236</v>
+        <v>21209.7679</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19141.3898</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.6271</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9672.5219</v>
       </c>
-      <c r="O4" s="1">
-        <v>858.6102</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31159.6102</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0173</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.9905</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1794.8596</v>
       </c>
       <c r="F5" s="1">
         <v>473.8757</v>
       </c>
       <c r="G5" s="1">
-        <v>2268.7353</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>32122.962</v>
       </c>
       <c r="I5" s="1">
-        <v>37666.6504</v>
+        <v>858.6102</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6025</v>
+        <v>32981.5722</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27666.6504</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.4144</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8525.2606</v>
       </c>
-      <c r="O5" s="1">
-        <v>2333.3496</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42937.3596</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0432</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>18.2369</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2268.7353</v>
       </c>
       <c r="F6" s="1">
         <v>542.9286</v>
       </c>
       <c r="G6" s="1">
-        <v>2811.6639</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41160.077</v>
       </c>
       <c r="I6" s="1">
-        <v>47567.9845</v>
+        <v>2333.3496</v>
       </c>
       <c r="J6" s="1">
-        <v>16.9181</v>
+        <v>43493.4266</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37567.9845</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.559</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9901.3341</v>
       </c>
-      <c r="O6" s="1">
-        <v>2432.0155</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53442.0656</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0095</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>19.1395</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2811.6639</v>
       </c>
       <c r="F7" s="1">
         <v>419.4025</v>
       </c>
       <c r="G7" s="1">
-        <v>3231.0664</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>53534.6431</v>
       </c>
       <c r="I7" s="1">
-        <v>55595.1387</v>
+        <v>2432.0155</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2064</v>
+        <v>55966.6586</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45595.1387</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2164</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8027.1541</v>
       </c>
-      <c r="O7" s="1">
-        <v>4404.8613</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65925.0119</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0391</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>20.979</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3231.0664</v>
       </c>
       <c r="F8" s="1">
         <v>225.2975</v>
       </c>
       <c r="G8" s="1">
-        <v>3456.3639</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>67433.32520000001</v>
       </c>
       <c r="I8" s="1">
-        <v>60321.6554</v>
+        <v>4404.8613</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4523</v>
+        <v>71838.1866</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>50321.6554</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5743</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-4726.5167</v>
       </c>
-      <c r="O8" s="1">
-        <v>9678.3446</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81813.6967</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0776</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>22.3911</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3456.3639</v>
       </c>
       <c r="F9" s="1">
         <v>263.3368</v>
       </c>
       <c r="G9" s="1">
-        <v>3719.7007</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>76990.85219999999</v>
       </c>
       <c r="I9" s="1">
-        <v>66218.05590000001</v>
+        <v>9678.3446</v>
       </c>
       <c r="J9" s="1">
-        <v>17.802</v>
+        <v>86669.19680000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>56218.0559</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.2651</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5896.4005</v>
       </c>
-      <c r="O9" s="1">
-        <v>13781.9441</v>
-      </c>
-      <c r="P9" s="1">
-        <v>96638.64969999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0526</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>23.2533</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>3719.7007</v>
       </c>
       <c r="F10" s="1">
         <v>330.2058</v>
       </c>
       <c r="G10" s="1">
-        <v>4049.9065</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>86046.72100000001</v>
       </c>
       <c r="I10" s="1">
-        <v>73896.4304</v>
+        <v>13781.9441</v>
       </c>
       <c r="J10" s="1">
-        <v>18.2465</v>
+        <v>99828.6651</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>63896.4304</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.1778</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7678.3745</v>
       </c>
-      <c r="O10" s="1">
-        <v>16103.5696</v>
-      </c>
-      <c r="P10" s="1">
-        <v>109788.8422</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0295</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>22.965</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>4049.9065</v>
       </c>
       <c r="F11" s="1">
         <v>529.564</v>
       </c>
       <c r="G11" s="1">
-        <v>4579.4705</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>92523.7595</v>
       </c>
       <c r="I11" s="1">
-        <v>86057.8674</v>
+        <v>16103.5696</v>
       </c>
       <c r="J11" s="1">
-        <v>18.7921</v>
+        <v>108627.329</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>76057.8674</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.7802</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12161.437</v>
       </c>
-      <c r="O11" s="1">
-        <v>13942.1326</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118564.258</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0102</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>19.9668</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>4579.4705</v>
       </c>
       <c r="F12" s="1">
         <v>1199.0971</v>
       </c>
       <c r="G12" s="1">
-        <v>5778.5676</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>114781.4227</v>
+        <v>90963.3967</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>13942.1326</v>
       </c>
       <c r="J12" s="1">
-        <v>19.0359</v>
+        <v>104905.5292</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>21.8366</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-23942.1326</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114781.4227</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.1072</v>
+        <v>-0.1157</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.2441</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>5778.5676</v>
       </c>
       <c r="F13" s="1">
         <v>548.1224</v>
       </c>
       <c r="G13" s="1">
-        <v>6326.69</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>114826.2611</v>
+        <v>104878.1134</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.9673</v>
+        <v>104878.1134</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>19.0359</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114826.2611</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0798</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>14.3227</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6326.69</v>
       </c>
       <c r="F14" s="1">
         <v>-6326.69</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>90145.2105</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.9673</v>
+        <v>90145.2105</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>17.3867</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
-        <v>11388.0421</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>101533.2526</v>
+        <v>10401.4218</v>
       </c>
       <c r="O14" s="1">
-        <v>101533.2526</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101533.2526</v>
+        <v>100546.6323</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1866</v>
+        <v>-0.2153</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.3645</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>650.851</v>
       </c>
       <c r="G2" s="1">
-        <v>650.851</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.127200000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.3645</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.127200000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.4953</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>650.851</v>
       </c>
       <c r="F3" s="1">
         <v>577.0813000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1227.9323</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10680.2695</v>
       </c>
       <c r="I3" s="1">
-        <v>19519.1287</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.8959</v>
+        <v>10680.2695</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9519.128699999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.6257</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9519.128699999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>480.8713</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20630.8713</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0342</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.9701</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1227.9323</v>
       </c>
       <c r="F4" s="1">
         <v>575.8866</v>
       </c>
       <c r="G4" s="1">
-        <v>1803.8188</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20730.0752</v>
       </c>
       <c r="I4" s="1">
-        <v>29291.9815</v>
+        <v>480.8713</v>
       </c>
       <c r="J4" s="1">
-        <v>16.2389</v>
+        <v>21210.9465</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19291.9815</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.7109</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9772.852800000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>708.0185</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31160.2685</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0173</v>
+        <v>0.0257</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.9905</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1803.8188</v>
       </c>
       <c r="F5" s="1">
         <v>481.9596</v>
       </c>
       <c r="G5" s="1">
-        <v>2285.7784</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>32283.3065</v>
       </c>
       <c r="I5" s="1">
-        <v>37962.6756</v>
+        <v>708.0185</v>
       </c>
       <c r="J5" s="1">
-        <v>16.6082</v>
+        <v>32991.325</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27962.6756</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.5019</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8670.694100000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>2037.3244</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42946.3581</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0434</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>18.2369</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2285.7784</v>
       </c>
       <c r="F6" s="1">
         <v>554.1409</v>
       </c>
       <c r="G6" s="1">
-        <v>2839.9194</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41469.278</v>
       </c>
       <c r="I6" s="1">
-        <v>48068.4885</v>
+        <v>2037.3244</v>
       </c>
       <c r="J6" s="1">
-        <v>16.926</v>
+        <v>43506.6024</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38068.4885</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.6545</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10105.8129</v>
       </c>
-      <c r="O6" s="1">
-        <v>1931.5115</v>
-      </c>
-      <c r="P6" s="1">
-        <v>53454.1807</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>19.1395</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2839.9194</v>
       </c>
       <c r="F7" s="1">
         <v>431.8692</v>
       </c>
       <c r="G7" s="1">
-        <v>3271.7886</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54072.6329</v>
       </c>
       <c r="I7" s="1">
-        <v>56334.2496</v>
+        <v>1931.5115</v>
       </c>
       <c r="J7" s="1">
-        <v>17.2182</v>
+        <v>56004.1443</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46334.2496</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.3153</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8265.761</v>
       </c>
-      <c r="O7" s="1">
-        <v>3665.7504</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65961.2597</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0395</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>20.979</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3271.7886</v>
       </c>
       <c r="F8" s="1">
         <v>237.0226</v>
       </c>
       <c r="G8" s="1">
-        <v>3508.8112</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>68283.2096</v>
       </c>
       <c r="I8" s="1">
-        <v>61306.7463</v>
+        <v>3665.7504</v>
       </c>
       <c r="J8" s="1">
-        <v>17.4722</v>
+        <v>71948.96000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51306.7463</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.6816</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-4972.4967</v>
       </c>
-      <c r="O8" s="1">
-        <v>8693.253699999999</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81923.1957</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0785</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>22.3911</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3508.8112</v>
       </c>
       <c r="F9" s="1">
         <v>276.9582</v>
       </c>
       <c r="G9" s="1">
-        <v>3785.7694</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>78159.11990000001</v>
       </c>
       <c r="I9" s="1">
-        <v>67508.1446</v>
+        <v>8693.253699999999</v>
       </c>
       <c r="J9" s="1">
-        <v>17.8321</v>
+        <v>86852.37360000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>57508.1446</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3896</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6201.3983</v>
       </c>
-      <c r="O9" s="1">
-        <v>12491.8554</v>
-      </c>
-      <c r="P9" s="1">
-        <v>96820.24649999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0533</v>
+        <v>0.0598</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>23.2533</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>3785.7694</v>
       </c>
       <c r="F10" s="1">
         <v>346.6197</v>
       </c>
       <c r="G10" s="1">
-        <v>4132.3891</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>87575.06690000001</v>
       </c>
       <c r="I10" s="1">
-        <v>75568.197</v>
+        <v>12491.8554</v>
       </c>
       <c r="J10" s="1">
-        <v>18.2868</v>
+        <v>100066.9223</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>65568.197</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3196</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8060.0524</v>
       </c>
-      <c r="O10" s="1">
-        <v>14431.803</v>
-      </c>
-      <c r="P10" s="1">
-        <v>110025.1199</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.03</v>
+        <v>0.0332</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>22.965</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>4132.3891</v>
       </c>
       <c r="F11" s="1">
         <v>552.356</v>
       </c>
       <c r="G11" s="1">
-        <v>4684.745</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>94408.1477</v>
       </c>
       <c r="I11" s="1">
-        <v>88253.0515</v>
+        <v>14431.803</v>
       </c>
       <c r="J11" s="1">
-        <v>18.8384</v>
+        <v>108839.9507</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78253.0515</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.9365</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12684.8545</v>
       </c>
-      <c r="O11" s="1">
-        <v>11746.9485</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118774.1651</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0104</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>19.9668</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>4684.745</v>
       </c>
       <c r="F12" s="1">
         <v>1089.1554</v>
       </c>
       <c r="G12" s="1">
-        <v>5773.9005</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>114688.717</v>
+        <v>93054.4961</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>11746.9485</v>
       </c>
       <c r="J12" s="1">
-        <v>19.0512</v>
+        <v>104801.4446</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>21.3459</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-21746.9485</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>114688.717</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.1094</v>
+        <v>-0.1181</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.2441</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>5773.9005</v>
       </c>
       <c r="F13" s="1">
         <v>548.1224</v>
       </c>
       <c r="G13" s="1">
-        <v>6322.0229</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>114741.554</v>
+        <v>104793.4064</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>18.9813</v>
+        <v>104793.4064</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>19.0512</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114741.554</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0798</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>14.3227</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6322.0229</v>
       </c>
       <c r="F14" s="1">
         <v>-6322.0229</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>90078.71060000001</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.9813</v>
+        <v>90078.71060000001</v>
       </c>
       <c r="K14" s="1">
+        <v>110000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>17.3995</v>
+      </c>
+      <c r="M14" s="1">
         <v>2</v>
       </c>
-      <c r="L14" s="1">
-        <v>11379.6412</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>101458.3518</v>
+        <v>10393.0208</v>
       </c>
       <c r="O14" s="1">
-        <v>101458.3518</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>101458.3518</v>
+        <v>100471.7314</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1867</v>
+        <v>-0.2153</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.2841</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>19.0152</v>
+        <v>17.4306</v>
       </c>
       <c r="D3" s="1">
-        <v>18.8715</v>
+        <v>17.2989</v>
       </c>
       <c r="E3" s="1">
-        <v>18.9245</v>
+        <v>17.3475</v>
       </c>
       <c r="F3" s="1">
-        <v>18.9673</v>
+        <v>17.3867</v>
       </c>
       <c r="G3" s="1">
-        <v>18.9813</v>
+        <v>17.3995</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0165</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0755</v>
+        <v>-0.0324</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0779</v>
+        <v>-0.0375</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0796</v>
+        <v>-0.039</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0808</v>
+        <v>-0.0399</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0805</v>
+        <v>-0.0393</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.314</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2689</v>
+        <v>0.3119</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2545</v>
+        <v>0.297</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2566</v>
+        <v>0.299</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2585</v>
+        <v>0.301</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2601</v>
+        <v>0.3026</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.1174</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3561</v>
+        <v>-0.169</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.386</v>
+        <v>-0.1947</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3896</v>
+        <v>-0.1984</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3911</v>
+        <v>-0.2001</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.3875</v>
+        <v>-0.1969</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.2746</v>
+        <v>-0.3934</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.2938</v>
+        <v>-0.3165</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.294</v>
+        <v>-0.3121</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.2937</v>
+        <v>-0.3084</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.2918</v>
+        <v>-0.3064</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>11359.3358</v>
+        <v>10372.7154</v>
       </c>
       <c r="D8" s="1">
-        <v>11445.8214</v>
+        <v>9968.1322</v>
       </c>
       <c r="E8" s="1">
-        <v>11413.7489</v>
+        <v>10221.1112</v>
       </c>
       <c r="F8" s="1">
-        <v>11388.0421</v>
+        <v>10401.4218</v>
       </c>
       <c r="G8" s="1">
-        <v>11379.6412</v>
+        <v>10393.0208</v>
       </c>
     </row>
   </sheetData>
